--- a/AfDD_2020_Annex_Table_Tab13.xlsx
+++ b/AfDD_2020_Annex_Table_Tab13.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Markley_S\BACKUP\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Tab13" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="172">
   <si>
     <t>Table 13: Communications infrastructure</t>
   </si>
@@ -49,7 +49,7 @@
     <t>Mobile-broadband subscriptions per 100 inhabitants, 2019</t>
   </si>
   <si>
-    <t>International bandwidth, in Mbits per second, 2019</t>
+    <t>International bandwidth, in megabytes per second, 2019</t>
   </si>
   <si>
     <t>Percentage of inhabitants that live within 4G mobile technology coverage, 2020</t>
@@ -523,7 +523,97 @@
     <t>Source: International Telecommunication Union - ICT Indicators Online Database (July 2020), GSMA Intelligence (data updated in june 2020), Gallup World Poll (accessed 15 December 2019).</t>
   </si>
   <si>
-    <t>If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+    <t>If you would like to explore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD2020</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in compressed csv format, including historic data back to 2000, click here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the first of two data files.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To download all data for the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Africa's Development Dynamics</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> statistical annex in uncompressed Excel format, including historic data back to 2000, click here to download the second of two data files.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -534,7 +624,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -657,6 +747,15 @@
       <i/>
       <u/>
       <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -835,15 +934,21 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -859,7 +964,12 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -869,6 +979,9 @@
     <xf numFmtId="164" fontId="7" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -881,13 +994,18 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -897,7 +1015,12 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -907,7 +1030,12 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -917,12 +1045,18 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -932,6 +1066,9 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="13" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -941,16 +1078,29 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1233,21 +1383,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet18">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.453125" style="43" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.26953125" style="55" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12.453125" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="57" customWidth="1"/>
+    <col min="9" max="10" width="12.453125" style="56" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1256,3124 +1409,3157 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="4"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="14">
         <v>0.37406400000000001</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="14">
         <v>14.3391</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="14">
         <v>46.598599999999998</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="14">
         <v>0.39190799999999998</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="15">
         <v>21.179400000000001</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="16">
         <v>43864</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="14">
         <v>61</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="14">
         <v>1.9538599999999999</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="14">
         <v>47</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="14">
         <v>173.81100000000001</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="14">
         <v>6.1239400000000002</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="15">
         <v>88.780299999999997</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="16">
         <v>11760</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="14">
         <v>80.17</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="15">
         <v>42.330620000000003</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="18">
         <v>0.71123400000000003</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="18">
         <v>47</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="19">
         <v>93.527299999999997</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="19">
         <v>3.6450800000000001</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="20">
         <v>15.9139</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="21">
         <v>2500</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="19">
         <v>30</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="20">
         <v>46.540019999999998</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="18">
         <v>0.273345</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="18">
         <v>29</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="19">
         <v>113.831</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="19">
         <v>0.395005</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="20">
         <v>58.9788</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="21">
         <v>3640</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="19">
         <v>75</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="20">
         <v>20.128050000000002</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="18">
         <v>6.0970299999999998E-2</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="18">
         <v>13.7822</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="19">
         <v>47.781100000000002</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="19">
         <v>7.0326799999999995E-2</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="20">
         <v>31.8459</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="21">
         <v>9614</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="19">
         <v>79.09</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="20">
         <v>16.457840000000001</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="18">
         <v>0.23725199999999999</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="18">
         <v>10</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="19">
         <v>47.715800000000002</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="19">
         <v>0.21360899999999999</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="20">
         <v>15.0665</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="21">
         <v>47116</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="19">
         <v>25</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="20">
         <v>17.348590000000002</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="18">
         <v>2.5381100000000001</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="18">
         <v>51</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="19">
         <v>113.16500000000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="19">
         <v>5.6001700000000003</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="20">
         <v>90.122699999999995</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="21">
         <v>18110</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="19">
         <v>75</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="20">
         <v>54.700890000000001</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="18">
         <v>2.13523</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="18">
         <v>56.167400000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="19">
         <v>165.6</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="19">
         <v>3.45763</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="20">
         <v>84.522300000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="21">
         <v>351259</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="19">
         <v>95</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="20">
         <v>48.762569999999997</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="14">
         <v>0.49768099999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="14">
         <v>14.3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="14">
         <v>96.414400000000001</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="14">
         <v>0.54150900000000002</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="15">
         <v>51.071599999999997</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="16">
         <v>52081</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="14">
         <v>40</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="15">
         <v>29.62567</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="18">
         <v>1.3958200000000001</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="18">
         <v>27.055499999999999</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="19">
         <v>90.1023</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="19">
         <v>1.8144499999999999</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="20">
         <v>51.6875</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="21">
         <v>116927</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="19">
         <v>50</v>
       </c>
-      <c r="J12" s="16">
+      <c r="J12" s="20">
         <v>31.997789999999998</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="21">
-        <v>1.0177566300000001</v>
-      </c>
-      <c r="D13" s="21">
-        <v>30.96442</v>
-      </c>
-      <c r="E13" s="21">
-        <v>98.854650000000106</v>
-      </c>
-      <c r="F13" s="21">
-        <v>2.2253627800000002</v>
-      </c>
-      <c r="G13" s="22">
-        <v>50.916890000000002</v>
-      </c>
-      <c r="H13" s="21">
-        <v>65687.100000000006</v>
-      </c>
-      <c r="I13" s="21">
-        <v>61.026000000000003</v>
-      </c>
-      <c r="J13" s="22">
-        <v>34.210226666666699</v>
+      <c r="C13" s="26">
+        <v>1.0382610987605101</v>
+      </c>
+      <c r="D13" s="26">
+        <v>29.499132852656398</v>
+      </c>
+      <c r="E13" s="26">
+        <v>97.762308030449404</v>
+      </c>
+      <c r="F13" s="26">
+        <v>1.6231111277891199</v>
+      </c>
+      <c r="G13" s="27">
+        <v>49.5476014029502</v>
+      </c>
+      <c r="H13" s="28">
+        <v>146149.058700744</v>
+      </c>
+      <c r="I13" s="26">
+        <v>65.143892746536295</v>
+      </c>
+      <c r="J13" s="27">
+        <v>33.954502771513802</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="18">
         <v>3.2877799999999999E-2</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="18">
         <v>2.6607500000000002</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="19">
         <v>57.615600000000001</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="19">
         <v>0.18156900000000001</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="20">
         <v>11.1435</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="21">
         <v>6163</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="19">
         <v>25</v>
       </c>
-      <c r="J14" s="16">
+      <c r="J14" s="20">
         <v>16.298079999999999</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="18">
         <v>0.77256599999999997</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="18">
         <v>23.202999999999999</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="19">
         <v>81.755300000000005</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="19">
         <v>3.5784699999999998</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="20">
         <v>18.8095</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="21">
         <v>20280</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="19">
         <v>75</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="20">
         <v>28.949380000000001</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="18">
         <v>1.05159E-2</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="18">
         <v>4.3392499999999998</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="19">
         <v>32.251300000000001</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="19">
         <v>4.69959E-2</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="20">
         <v>5.0293099999999997</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="21">
         <v>1295</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="20">
         <v>8.2267499999999991</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="14">
         <v>1.2534099999999999E-3</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="14">
         <v>6.5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="14">
         <v>48.064799999999998</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="14">
         <v>4.0910799999999997E-2</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="15">
         <v>2.9837699999999998</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="16">
         <v>16208</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="14">
         <v>30</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="15">
         <v>8.0051839999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="14">
         <v>1.05553E-2</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="14">
         <v>8.65</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="14">
         <v>95.340500000000006</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="14">
         <v>0.33263599999999999</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="15">
         <v>6.0461400000000003</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="16">
         <v>6355</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="14">
         <v>64.5</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="15">
         <v>25.9636</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="14">
         <v>5.4955500000000001E-3</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="14">
         <v>8.6198999999999995</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="14">
         <v>42.773299999999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="14">
         <v>0</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="15">
         <v>19.529800000000002</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="16">
         <v>4500</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="14">
         <v>30.96</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="15">
         <v>19.668240000000001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="14">
         <v>0.123761</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="14">
         <v>26.24</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="14">
         <v>45.166899999999998</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="14">
         <v>0.82874000000000003</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="15">
         <v>0.14102600000000001</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="16">
         <v>800</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="14">
         <v>1.3730599999999999</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="14">
         <v>62</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="14">
         <v>138.28100000000001</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="14">
         <v>1.0295000000000001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G21" s="15">
         <v>91.815700000000007</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="16">
         <v>12300</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="14">
         <v>35</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="15">
         <v>50.621380000000002</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>0.76352200000000003</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="18">
         <v>29.9312</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="19">
         <v>77.078100000000006</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22" s="19">
         <v>2.2245400000000002</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="20">
         <v>34.343600000000002</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="21">
         <v>2317</v>
       </c>
-      <c r="I22" s="15" t="s">
+      <c r="I22" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J22" s="16" t="s">
+      <c r="J22" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="21">
-        <v>0.34373410666666998</v>
-      </c>
-      <c r="D23" s="21">
-        <v>19.127122222222201</v>
-      </c>
-      <c r="E23" s="21">
-        <v>68.702977777777804</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0.9181513</v>
-      </c>
-      <c r="G23" s="22">
-        <v>21.093594</v>
-      </c>
-      <c r="H23" s="21">
-        <v>7802</v>
-      </c>
-      <c r="I23" s="21">
-        <v>39.768571428571398</v>
-      </c>
-      <c r="J23" s="22">
-        <v>22.5332305714286</v>
+      <c r="C23" s="26">
+        <v>0.15770707463097</v>
+      </c>
+      <c r="D23" s="26">
+        <v>11.2114689168104</v>
+      </c>
+      <c r="E23" s="26">
+        <v>53.910403471221002</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0.65705471705416996</v>
+      </c>
+      <c r="G23" s="27">
+        <v>17.019569309390501</v>
+      </c>
+      <c r="H23" s="28">
+        <v>8528.4914404727897</v>
+      </c>
+      <c r="I23" s="26">
+        <v>38.689617715167103</v>
+      </c>
+      <c r="J23" s="27">
+        <v>20.0810220910775</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="18">
         <v>0.12998199999999999</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="18">
         <v>8.4781700000000004</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="19">
         <v>67.602199999999996</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="19">
         <v>1.18018</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="20">
         <v>14.313000000000001</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="21">
         <v>2100</v>
       </c>
-      <c r="I24" s="15">
+      <c r="I24" s="19">
         <v>65</v>
       </c>
-      <c r="J24" s="16">
+      <c r="J24" s="20">
         <v>32.669620000000002</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="18">
         <v>2.6600700000000002</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="18">
         <v>55.681399999999996</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="19">
         <v>41.195900000000002</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="19">
         <v>3.8433700000000002</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="20">
         <v>20.597999999999999</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="21">
         <v>10000</v>
       </c>
-      <c r="I25" s="15">
+      <c r="I25" s="19">
         <v>10.37</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J25" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="18">
         <v>2.9300699999999999E-2</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="18">
         <v>1.30891</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="19">
         <v>20.364000000000001</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="19">
         <v>1.93882</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="20">
         <v>0</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="21">
         <v>640</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="I26" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J26" s="16" t="s">
+      <c r="J26" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="18">
         <v>5.9163599999999997E-2</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="18">
         <v>18.618099999999998</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="19">
         <v>36.200699999999998</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27" s="19">
         <v>1.04372</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="20">
         <v>13.8985</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="21">
         <v>27400</v>
       </c>
-      <c r="I27" s="15">
+      <c r="I27" s="19">
         <v>69.94</v>
       </c>
-      <c r="J27" s="16">
+      <c r="J27" s="20">
         <v>9.9774370000000001</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="18">
         <v>0.93427000000000004</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="18">
         <v>22.565100000000001</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="19">
         <v>103.76900000000001</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28" s="19">
         <v>0.13389499999999999</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="20">
         <v>41.076500000000003</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="21">
         <v>6719490</v>
       </c>
-      <c r="I28" s="15">
+      <c r="I28" s="19">
         <v>69.56</v>
       </c>
-      <c r="J28" s="16">
+      <c r="J28" s="20">
         <v>50.82938</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="18">
         <v>0.103612</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="18">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="19">
         <v>40.570300000000003</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29" s="19">
         <v>0.262909</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="20">
         <v>15.601800000000001</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="21">
         <v>14826</v>
       </c>
-      <c r="I29" s="15">
+      <c r="I29" s="19">
         <v>66.989999999999995</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="20">
         <v>12.790419999999999</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="18">
         <v>21.638500000000001</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="18">
         <v>63.999899999999997</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="19">
         <v>151.35900000000001</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30" s="19">
         <v>34.272799999999997</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="20">
         <v>65.2864</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="21">
         <v>96300</v>
       </c>
-      <c r="I30" s="15">
+      <c r="I30" s="19">
         <v>90</v>
       </c>
-      <c r="J30" s="16">
+      <c r="J30" s="20">
         <v>64.126570000000001</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="18">
         <v>7.0365399999999995E-2</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="18">
         <v>21.767600000000002</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="19">
         <v>76.491500000000002</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="19">
         <v>9.0227600000000005E-2</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="20">
         <v>42.303899999999999</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="21">
         <v>37065</v>
       </c>
-      <c r="I31" s="15">
+      <c r="I31" s="19">
         <v>99</v>
       </c>
-      <c r="J31" s="16">
+      <c r="J31" s="20">
         <v>12.628209999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="18">
         <v>27.603100000000001</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="18">
         <v>58.769799999999996</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="19">
         <v>198.15199999999999</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="19">
         <v>20.587499999999999</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="20">
         <v>91.9756</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="21">
         <v>14037</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="19">
         <v>75.64</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="J32" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="18">
         <v>0.67173099999999997</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="18">
         <v>2.0040499999999999</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="19">
         <v>48.796399999999998</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="19">
         <v>4.4553600000000001E-4</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="20">
         <v>2.4538700000000002</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="21">
         <v>370.37799999999999</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I33" s="19">
         <v>75</v>
       </c>
-      <c r="J33" s="16">
+      <c r="J33" s="20">
         <v>17.94828</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="14">
         <v>2.3414899999999999E-3</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="14">
         <v>7.97743</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="14">
         <v>33.463000000000001</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="14">
         <v>0</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="15">
         <v>5.9962799999999996</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="16">
         <v>400</v>
       </c>
-      <c r="I34" s="11" t="s">
+      <c r="I34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="15">
         <v>4.9471340000000001</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="18">
         <v>7.4681499999999998E-2</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="18">
         <v>30.8703</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="19">
         <v>77.111999999999995</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="19">
         <v>0.321961</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="20">
         <v>37.934800000000003</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="21">
         <v>26381</v>
       </c>
-      <c r="I35" s="15">
+      <c r="I35" s="19">
         <v>34</v>
       </c>
-      <c r="J35" s="16" t="s">
+      <c r="J35" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="18">
         <v>1.7802899999999999</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="18">
         <v>25</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="19">
         <v>82.208200000000005</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="19">
         <v>0.131519</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="20">
         <v>9.7916100000000004</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="21">
         <v>12700</v>
       </c>
-      <c r="I36" s="15">
+      <c r="I36" s="19">
         <v>28</v>
       </c>
-      <c r="J36" s="16">
+      <c r="J36" s="20">
         <v>19.938009999999998</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="18">
         <v>2.75667E-2</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="18">
         <v>23.706499999999998</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="19">
         <v>57.272599999999997</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37" s="19">
         <v>0.43741200000000002</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="20">
         <v>33.609099999999998</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="21">
         <v>75880</v>
       </c>
-      <c r="I37" s="15">
+      <c r="I37" s="19">
         <v>70</v>
       </c>
-      <c r="J37" s="16">
+      <c r="J37" s="20">
         <v>30.846520000000002</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="21">
-        <v>3.98464102785714</v>
-      </c>
-      <c r="D38" s="21">
-        <v>25.039090000000002</v>
-      </c>
-      <c r="E38" s="21">
-        <v>73.896914285714303</v>
-      </c>
-      <c r="F38" s="21">
-        <v>4.5889113668571397</v>
-      </c>
-      <c r="G38" s="22">
-        <v>28.202811428571401</v>
-      </c>
-      <c r="H38" s="21">
-        <v>502684.95557142899</v>
-      </c>
-      <c r="I38" s="21">
-        <v>62.7916666666667</v>
-      </c>
-      <c r="J38" s="22">
-        <v>25.670158099999998</v>
+      <c r="C38" s="26">
+        <v>0.55025641558325</v>
+      </c>
+      <c r="D38" s="26">
+        <v>20.666697685421202</v>
+      </c>
+      <c r="E38" s="26">
+        <v>61.9096479091763</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0.60148169795126005</v>
+      </c>
+      <c r="G38" s="27">
+        <v>22.430846649732501</v>
+      </c>
+      <c r="H38" s="28">
+        <v>947849.21335152094</v>
+      </c>
+      <c r="I38" s="26">
+        <v>59.986038389336301</v>
+      </c>
+      <c r="J38" s="27">
+        <v>21.655142054495599</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="14">
         <v>8.3216800000000006</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="14">
         <v>59.579700000000003</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="14">
         <v>109.35599999999999</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="14">
         <v>10.766299999999999</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="15">
         <v>95.986800000000002</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="16">
         <v>722554</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="14">
         <v>81.680000000000007</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="15">
         <v>54.571330000000003</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="14">
+      <c r="C40" s="18">
         <v>7.5695699999999997</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="18">
         <v>57.282899999999998</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="19">
         <v>94.971699999999998</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F40" s="19">
         <v>8.7265700000000006</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="20">
         <v>59.342500000000001</v>
       </c>
-      <c r="H40" s="15">
+      <c r="H40" s="21">
         <v>1545030</v>
       </c>
-      <c r="I40" s="15">
+      <c r="I40" s="19">
         <v>84.91</v>
       </c>
-      <c r="J40" s="16">
+      <c r="J40" s="20">
         <v>36.668050000000001</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="14">
         <v>4.8323</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="14">
         <v>21.758900000000001</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="14">
         <v>91.479299999999995</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="14">
         <v>23.948699999999999</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="15">
         <v>35.755899999999997</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="16">
         <v>25000</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="14">
         <v>83.59</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="15">
         <v>68.667180000000002</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="14">
         <v>0.23896899999999999</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="14">
         <v>20.800999999999998</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="14">
         <v>104.09</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="14">
         <v>1.3668199999999999</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G42" s="15">
         <v>55.530500000000004</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="16">
         <v>10800</v>
       </c>
-      <c r="I42" s="11" t="s">
+      <c r="I42" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="15">
         <v>31.663229999999999</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="14">
+      <c r="C43" s="18">
         <v>4.8019100000000003</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="18">
         <v>74.376300000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="19">
         <v>127.953</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="19">
         <v>5.6332500000000003</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="20">
         <v>64.919300000000007</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="21">
         <v>1970050</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="19">
         <v>98</v>
       </c>
-      <c r="J43" s="16">
+      <c r="J43" s="20">
         <v>47.104289999999999</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C44" s="18">
         <v>10.2043</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="18">
         <v>66.7</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="19">
         <v>126.30500000000001</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="19">
         <v>12.4345</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G44" s="20">
         <v>77.791200000000003</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="21">
         <v>486224</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="19">
         <v>90</v>
       </c>
-      <c r="J44" s="16">
+      <c r="J44" s="20">
         <v>50.508940000000003</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="19" t="s">
+      <c r="A45" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="21">
-        <v>5.9947881666666696</v>
-      </c>
-      <c r="D45" s="21">
-        <v>50.083133333333301</v>
-      </c>
-      <c r="E45" s="21">
-        <v>109.025833333333</v>
-      </c>
-      <c r="F45" s="21">
-        <v>10.4793566666667</v>
-      </c>
-      <c r="G45" s="22">
-        <v>64.887699999999995</v>
-      </c>
-      <c r="H45" s="21">
-        <v>793276.33333333395</v>
-      </c>
-      <c r="I45" s="21">
-        <v>87.635999999999996</v>
-      </c>
-      <c r="J45" s="22">
-        <v>48.19717</v>
+      <c r="C45" s="26">
+        <v>7.1286067671315596</v>
+      </c>
+      <c r="D45" s="26">
+        <v>59.3851679006493</v>
+      </c>
+      <c r="E45" s="26">
+        <v>105.84448718177001</v>
+      </c>
+      <c r="F45" s="26">
+        <v>9.1613435466124695</v>
+      </c>
+      <c r="G45" s="27">
+        <v>68.310422968621907</v>
+      </c>
+      <c r="H45" s="28">
+        <v>1300899.4965580101</v>
+      </c>
+      <c r="I45" s="26">
+        <v>86.855661141829302</v>
+      </c>
+      <c r="J45" s="27">
+        <v>44.111947300715102</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="14">
+      <c r="C46" s="18">
         <v>0.21553</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="18">
         <v>20</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="19">
         <v>87.701999999999998</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="19">
         <v>0.30435200000000001</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G46" s="20">
         <v>21.457999999999998</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="21">
         <v>76206.100000000006</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="19">
         <v>45</v>
       </c>
-      <c r="J46" s="16">
+      <c r="J46" s="20">
         <v>18.788419999999999</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="18">
         <v>5.9124900000000001E-2</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="18">
         <v>16</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="19">
         <v>100.212</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F47" s="19">
         <v>0.37050100000000002</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G47" s="20">
         <v>31.6966</v>
       </c>
-      <c r="H47" s="15">
+      <c r="H47" s="21">
         <v>44190</v>
       </c>
-      <c r="I47" s="15">
+      <c r="I47" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="J47" s="16">
+      <c r="J47" s="20">
         <v>18.44022</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="14">
+      <c r="C48" s="18">
         <v>3.22438</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="18">
         <v>58.171399999999998</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="19">
         <v>108.318</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="19">
         <v>10.457800000000001</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G48" s="20">
         <v>76.538700000000006</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="21">
         <v>8500</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="19">
         <v>60.84</v>
       </c>
-      <c r="J48" s="16" t="s">
+      <c r="J48" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="14">
+      <c r="C49" s="18">
         <v>0.84273799999999999</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="18">
         <v>36.453800000000001</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="19">
         <v>145.34100000000001</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="19">
         <v>1.05661</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G49" s="20">
         <v>66.187600000000003</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="21">
         <v>88288</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="19">
         <v>77.88</v>
       </c>
-      <c r="J49" s="16">
+      <c r="J49" s="20">
         <v>28.312000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="18">
         <v>0.19442200000000001</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="18">
         <v>19.836500000000001</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="19">
         <v>139.529</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F50" s="19">
         <v>1.9297500000000001</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G50" s="20">
         <v>36.762099999999997</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="21">
         <v>23000</v>
       </c>
-      <c r="I50" s="15">
+      <c r="I50" s="19">
         <v>54.15</v>
       </c>
-      <c r="J50" s="16">
+      <c r="J50" s="20">
         <v>34.044640000000001</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="14">
         <v>0.188919</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="14">
         <v>39</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="14">
         <v>134.31899999999999</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="14">
         <v>0.94855800000000001</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="15">
         <v>98.648099999999999</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="16">
         <v>205722</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="14">
         <v>77.98</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="15">
         <v>32.587710000000001</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="C52" s="14">
+      <c r="C52" s="18">
         <v>9.7876100000000004E-3</v>
       </c>
-      <c r="D52" s="14">
+      <c r="D52" s="18">
         <v>18</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="19">
         <v>100.797</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F52" s="19">
         <v>0</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G52" s="20">
         <v>23.165500000000002</v>
       </c>
-      <c r="H52" s="15">
+      <c r="H52" s="21">
         <v>42000</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="19">
         <v>17.920000000000002</v>
       </c>
-      <c r="J52" s="16">
+      <c r="J52" s="20">
         <v>20.45448</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="14">
+      <c r="C53" s="18">
         <v>6.3875600000000005E-2</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D53" s="18">
         <v>3.9305099999999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="19">
         <v>82.792599999999993</v>
       </c>
-      <c r="F53" s="15">
+      <c r="F53" s="19">
         <v>0</v>
       </c>
-      <c r="G53" s="16">
+      <c r="G53" s="20">
         <v>36.709499999999998</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="21">
         <v>5756</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="19">
         <v>46</v>
       </c>
-      <c r="J53" s="16" t="s">
+      <c r="J53" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="14">
+      <c r="C54" s="18">
         <v>0.19139900000000001</v>
       </c>
-      <c r="D54" s="14">
+      <c r="D54" s="18">
         <v>7.9844799999999996</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="19">
         <v>56.569000000000003</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F54" s="19">
         <v>0.17441400000000001</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G54" s="20">
         <v>11.6966</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="21">
         <v>1120</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="19">
         <v>48.94</v>
       </c>
-      <c r="J54" s="16">
+      <c r="J54" s="20">
         <v>20.783860000000001</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="14">
+      <c r="C55" s="18">
         <v>0.63397400000000004</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D55" s="18">
         <v>13</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="19">
         <v>115.08499999999999</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F55" s="19">
         <v>1.1956199999999999</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G55" s="20">
         <v>30.279900000000001</v>
       </c>
-      <c r="H55" s="15">
+      <c r="H55" s="21">
         <v>13200</v>
       </c>
-      <c r="I55" s="15">
+      <c r="I55" s="19">
         <v>50</v>
       </c>
-      <c r="J55" s="16">
+      <c r="J55" s="20">
         <v>21.089400000000001</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="14">
+      <c r="C56" s="18">
         <v>4.0041899999999998E-2</v>
       </c>
-      <c r="D56" s="14">
+      <c r="D56" s="18">
         <v>5.2504900000000001</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="19">
         <v>40.638500000000001</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F56" s="19">
         <v>0.52934899999999996</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="20">
         <v>3.9330400000000001</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="21">
         <v>7399</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="19">
         <v>14.93</v>
       </c>
-      <c r="J56" s="16">
+      <c r="J56" s="20">
         <v>9.2337070000000008</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="14">
         <v>3.7761400000000001E-2</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="14">
         <v>42</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="14">
         <v>88.184200000000004</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="14">
         <v>7.1724899999999994E-2</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G57" s="15">
         <v>30.676300000000001</v>
       </c>
-      <c r="H57" s="11">
+      <c r="H57" s="16">
         <v>329652</v>
       </c>
-      <c r="I57" s="11">
+      <c r="I57" s="14">
         <v>67.28</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="15">
         <v>31.543589999999998</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="14">
+      <c r="C58" s="18">
         <v>0.93301199999999995</v>
       </c>
-      <c r="D58" s="14">
+      <c r="D58" s="18">
         <v>46</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="19">
         <v>109.721</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F58" s="19">
         <v>1.2738499999999999</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G58" s="20">
         <v>54.245699999999999</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="21">
         <v>31100</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="19">
         <v>75</v>
       </c>
-      <c r="J58" s="16">
+      <c r="J58" s="20">
         <v>31.423069999999999</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C59" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D59" s="18">
         <v>9</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E59" s="19">
         <v>86.133600000000001</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F59" s="19">
         <v>4.3951200000000003E-2</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G59" s="20">
         <v>14.7454</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="21">
         <v>155</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="19">
         <v>75.010000000000005</v>
       </c>
-      <c r="J59" s="16">
+      <c r="J59" s="20">
         <v>13.556100000000001</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="14">
         <v>0.39467400000000002</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D60" s="14">
         <v>12.360200000000001</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E60" s="14">
         <v>77.194999999999993</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F60" s="14">
         <v>0.53950799999999999</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G60" s="15">
         <v>41.104500000000002</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="16">
         <v>119571</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="14">
         <v>25.8</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="15">
         <v>20.511690000000002</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="19" t="s">
+      <c r="A61" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B61" s="20" t="s">
+      <c r="B61" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="21">
-        <v>0.50211710071429005</v>
-      </c>
-      <c r="D61" s="21">
-        <v>23.132491999999999</v>
-      </c>
-      <c r="E61" s="21">
-        <v>98.169126666666699</v>
-      </c>
-      <c r="F61" s="21">
-        <v>1.2597325399999999</v>
-      </c>
-      <c r="G61" s="22">
-        <v>38.5231693333333</v>
-      </c>
-      <c r="H61" s="21">
-        <v>66390.606666666703</v>
-      </c>
-      <c r="I61" s="21">
-        <v>50.31</v>
-      </c>
-      <c r="J61" s="22">
-        <v>23.136068230769201</v>
+      <c r="C61" s="26">
+        <v>0.19511071326672999</v>
+      </c>
+      <c r="D61" s="26">
+        <v>33.027489523145</v>
+      </c>
+      <c r="E61" s="26">
+        <v>95.6919061302427</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0.39805067494413998</v>
+      </c>
+      <c r="G61" s="27">
+        <v>37.052253139088698</v>
+      </c>
+      <c r="H61" s="28">
+        <v>204419.235767673</v>
+      </c>
+      <c r="I61" s="26">
+        <v>59.0283227699774</v>
+      </c>
+      <c r="J61" s="27">
+        <v>27.3613187738077</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="24" t="s">
+      <c r="B62" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="25">
-        <v>2.11423615207547</v>
-      </c>
-      <c r="D62" s="25">
-        <v>27.404106296296298</v>
-      </c>
-      <c r="E62" s="25">
-        <v>88.298555555555595</v>
-      </c>
-      <c r="F62" s="25">
-        <v>3.2691458654814798</v>
-      </c>
-      <c r="G62" s="26">
-        <v>38.167117518518502</v>
-      </c>
-      <c r="H62" s="25">
-        <v>250373.990333333</v>
-      </c>
-      <c r="I62" s="25">
-        <v>57.856530612244903</v>
-      </c>
-      <c r="J62" s="26">
-        <v>29.161736488888899</v>
+      <c r="C62" s="31">
+        <v>1.49560779614586</v>
+      </c>
+      <c r="D62" s="31">
+        <v>30.4438596466515</v>
+      </c>
+      <c r="E62" s="31">
+        <v>82.735636035216103</v>
+      </c>
+      <c r="F62" s="31">
+        <v>2.0181223503749202</v>
+      </c>
+      <c r="G62" s="32">
+        <v>36.985490032715802</v>
+      </c>
+      <c r="H62" s="33">
+        <v>561312.39156027499</v>
+      </c>
+      <c r="I62" s="31">
+        <v>61.994722396635403</v>
+      </c>
+      <c r="J62" s="32">
+        <v>28.498466822992501</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="25">
-        <v>18.624236132608701</v>
-      </c>
-      <c r="D63" s="25">
-        <v>66.216646715328494</v>
-      </c>
-      <c r="E63" s="25">
-        <v>113.635746043165</v>
-      </c>
-      <c r="F63" s="25">
-        <v>19.868776892805801</v>
-      </c>
-      <c r="G63" s="26">
-        <v>79.256613768115997</v>
-      </c>
-      <c r="H63" s="25">
-        <v>1943673.89632353</v>
-      </c>
-      <c r="I63" s="25">
-        <v>87.0983544303797</v>
-      </c>
-      <c r="J63" s="26">
-        <v>67.522089514563106</v>
+      <c r="C63" s="31">
+        <v>17.439920595182599</v>
+      </c>
+      <c r="D63" s="31">
+        <v>55.344296844391501</v>
+      </c>
+      <c r="E63" s="31">
+        <v>111.19952052443099</v>
+      </c>
+      <c r="F63" s="31">
+        <v>13.9305482952264</v>
+      </c>
+      <c r="G63" s="32">
+        <v>81.967607144016796</v>
+      </c>
+      <c r="H63" s="33">
+        <v>17805678.345339201</v>
+      </c>
+      <c r="I63" s="31">
+        <v>93.794906183229799</v>
+      </c>
+      <c r="J63" s="32">
+        <v>52.876425659065603</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="29">
-        <v>13.1578001818182</v>
-      </c>
-      <c r="D64" s="29">
-        <v>60.641372727272703</v>
-      </c>
-      <c r="E64" s="29">
-        <v>109.972451515152</v>
-      </c>
-      <c r="F64" s="29">
-        <v>15.889538793939399</v>
-      </c>
-      <c r="G64" s="30">
-        <v>59.910357575757601</v>
-      </c>
-      <c r="H64" s="29">
-        <v>650726.951515152</v>
-      </c>
-      <c r="I64" s="29">
-        <v>85.824062499999997</v>
-      </c>
-      <c r="J64" s="30">
-        <v>57.657615238095303</v>
+      <c r="C64" s="36">
+        <v>13.235654500313601</v>
+      </c>
+      <c r="D64" s="36">
+        <v>65.938924078494793</v>
+      </c>
+      <c r="E64" s="36">
+        <v>103.08813391559001</v>
+      </c>
+      <c r="F64" s="36">
+        <v>14.8856290203538</v>
+      </c>
+      <c r="G64" s="37">
+        <v>73.373472171664403</v>
+      </c>
+      <c r="H64" s="38">
+        <v>2653051.2885513701</v>
+      </c>
+      <c r="I64" s="36">
+        <v>89.087329827940806</v>
+      </c>
+      <c r="J64" s="37">
+        <v>58.151674164794301</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="31" t="s">
+      <c r="B65" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="32">
-        <v>6.2096417275862104</v>
-      </c>
-      <c r="D65" s="32">
-        <v>43.292896551724098</v>
-      </c>
-      <c r="E65" s="32">
-        <v>110.627636666667</v>
-      </c>
-      <c r="F65" s="32">
-        <v>7.4657273999999996</v>
-      </c>
-      <c r="G65" s="30">
-        <v>60.677889999999998</v>
-      </c>
-      <c r="H65" s="32">
-        <v>3451789.1034482801</v>
-      </c>
-      <c r="I65" s="32">
-        <v>83.089285714285694</v>
-      </c>
-      <c r="J65" s="30">
-        <v>44.196759999999998</v>
+      <c r="C65" s="40">
+        <v>13.0618230007556</v>
+      </c>
+      <c r="D65" s="40">
+        <v>43.148106215504001</v>
+      </c>
+      <c r="E65" s="40">
+        <v>106.858363554367</v>
+      </c>
+      <c r="F65" s="40">
+        <v>6.9523920313631402</v>
+      </c>
+      <c r="G65" s="37">
+        <v>70.903200613023898</v>
+      </c>
+      <c r="H65" s="41">
+        <v>22908154.078371398</v>
+      </c>
+      <c r="I65" s="40">
+        <v>93.820237520515704</v>
+      </c>
+      <c r="J65" s="37">
+        <v>41.1630940738021</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B66" s="31" t="s">
+      <c r="B66" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="29">
-        <v>14.0429272374869</v>
-      </c>
-      <c r="D66" s="29">
-        <v>55.243467748691103</v>
-      </c>
-      <c r="E66" s="29">
-        <v>106.546583937824</v>
-      </c>
-      <c r="F66" s="29">
-        <v>15.2243205431917</v>
-      </c>
-      <c r="G66" s="30">
-        <v>67.700192947916705</v>
-      </c>
-      <c r="H66" s="29">
-        <v>1462420.2388315799</v>
-      </c>
-      <c r="I66" s="29">
-        <v>75.904218749999998</v>
-      </c>
-      <c r="J66" s="30">
-        <v>55.858468662162203</v>
+      <c r="C66" s="36">
+        <v>14.7283753669851</v>
+      </c>
+      <c r="D66" s="36">
+        <v>51.088506626295001</v>
+      </c>
+      <c r="E66" s="36">
+        <v>106.350986378017</v>
+      </c>
+      <c r="F66" s="36">
+        <v>11.9013873076557</v>
+      </c>
+      <c r="G66" s="37">
+        <v>74.305341552354804</v>
+      </c>
+      <c r="H66" s="38">
+        <v>14858400.483746599</v>
+      </c>
+      <c r="I66" s="36">
+        <v>87.697600757626503</v>
+      </c>
+      <c r="J66" s="37">
+        <v>48.960085711622298</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B67" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="34">
-        <v>3.7767900738095301</v>
-      </c>
-      <c r="D67" s="34">
-        <v>27.463332380952401</v>
-      </c>
-      <c r="E67" s="34">
-        <v>79.040742857142902</v>
-      </c>
-      <c r="F67" s="34">
-        <v>5.4988545207619097</v>
-      </c>
-      <c r="G67" s="35">
-        <v>34.911108095238099</v>
-      </c>
-      <c r="H67" s="34">
-        <v>441548.97038095299</v>
-      </c>
-      <c r="I67" s="34">
-        <v>61.952500000000001</v>
-      </c>
-      <c r="J67" s="35">
-        <v>32.2498968823529</v>
+      <c r="C67" s="43">
+        <v>1.8035138688396699</v>
+      </c>
+      <c r="D67" s="43">
+        <v>25.3658378811798</v>
+      </c>
+      <c r="E67" s="43">
+        <v>66.201261578481095</v>
+      </c>
+      <c r="F67" s="43">
+        <v>2.48754997694919</v>
+      </c>
+      <c r="G67" s="44">
+        <v>32.868106889083897</v>
+      </c>
+      <c r="H67" s="45">
+        <v>902487.05383552599</v>
+      </c>
+      <c r="I67" s="43">
+        <v>62.977698472344201</v>
+      </c>
+      <c r="J67" s="44">
+        <v>26.253038468298602</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A68" s="27" t="s">
+      <c r="A68" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B68" s="31" t="s">
+      <c r="B68" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="32">
-        <v>1.45160183</v>
-      </c>
-      <c r="D68" s="32">
-        <v>25.2373072</v>
-      </c>
-      <c r="E68" s="32">
-        <v>87.513419999999996</v>
-      </c>
-      <c r="F68" s="32">
-        <v>2.7098518934400002</v>
-      </c>
-      <c r="G68" s="30">
-        <v>34.650575600000003</v>
-      </c>
-      <c r="H68" s="32">
-        <v>203213.49911999999</v>
-      </c>
-      <c r="I68" s="32">
-        <v>53.637391304347801</v>
-      </c>
-      <c r="J68" s="30">
-        <v>27.687930999999999</v>
+      <c r="C68" s="40">
+        <v>1.9035468335368599</v>
+      </c>
+      <c r="D68" s="40">
+        <v>37.942463285172103</v>
+      </c>
+      <c r="E68" s="40">
+        <v>93.673536024206101</v>
+      </c>
+      <c r="F68" s="40">
+        <v>2.5082029373027699</v>
+      </c>
+      <c r="G68" s="37">
+        <v>41.132005038384698</v>
+      </c>
+      <c r="H68" s="41">
+        <v>500925.49188014597</v>
+      </c>
+      <c r="I68" s="40">
+        <v>63.946246851341598</v>
+      </c>
+      <c r="J68" s="37">
+        <v>30.375322571206102</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A69" s="27" t="s">
+      <c r="A69" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="31" t="s">
+      <c r="B69" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="32">
-        <v>0.47461856499999999</v>
-      </c>
-      <c r="D69" s="32">
-        <v>17.2795633333333</v>
-      </c>
-      <c r="E69" s="32">
-        <v>68.469983333333403</v>
-      </c>
-      <c r="F69" s="32">
-        <v>0.1624371</v>
-      </c>
-      <c r="G69" s="30">
-        <v>23.986815</v>
-      </c>
-      <c r="H69" s="32">
-        <v>1141949.66666667</v>
-      </c>
-      <c r="I69" s="32">
-        <v>58.311999999999998</v>
-      </c>
-      <c r="J69" s="30">
-        <v>22.581222333333301</v>
+      <c r="C69" s="40">
+        <v>0.81496183091451002</v>
+      </c>
+      <c r="D69" s="40">
+        <v>21.464538203449099</v>
+      </c>
+      <c r="E69" s="40">
+        <v>77.6554860360323</v>
+      </c>
+      <c r="F69" s="40">
+        <v>0.19606155432965</v>
+      </c>
+      <c r="G69" s="37">
+        <v>26.0136207637333</v>
+      </c>
+      <c r="H69" s="41">
+        <v>1883054.39997621</v>
+      </c>
+      <c r="I69" s="40">
+        <v>55.3768555070736</v>
+      </c>
+      <c r="J69" s="37">
+        <v>29.449458538539499</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="31" t="s">
+      <c r="B70" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="32">
-        <v>0.32163966909091002</v>
-      </c>
-      <c r="D70" s="32">
-        <v>18.9318909090909</v>
-      </c>
-      <c r="E70" s="32">
-        <v>67.401536363636396</v>
-      </c>
-      <c r="F70" s="32">
-        <v>0.79504520909091003</v>
-      </c>
-      <c r="G70" s="30">
-        <v>23.0296041818182</v>
-      </c>
-      <c r="H70" s="32">
-        <v>13740.6363636364</v>
-      </c>
-      <c r="I70" s="32">
-        <v>48.7088888888889</v>
-      </c>
-      <c r="J70" s="30">
-        <v>21.295103000000001</v>
+      <c r="C70" s="40">
+        <v>0.18684439598663999</v>
+      </c>
+      <c r="D70" s="40">
+        <v>12.384614317704999</v>
+      </c>
+      <c r="E70" s="40">
+        <v>54.174578642092698</v>
+      </c>
+      <c r="F70" s="40">
+        <v>0.57847365545883001</v>
+      </c>
+      <c r="G70" s="37">
+        <v>19.295282345936801</v>
+      </c>
+      <c r="H70" s="41">
+        <v>16010.338625828301</v>
+      </c>
+      <c r="I70" s="40">
+        <v>46.156542962945899</v>
+      </c>
+      <c r="J70" s="37">
+        <v>19.508958803558698</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A71" s="27" t="s">
+      <c r="A71" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="31" t="s">
+      <c r="B71" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="32">
-        <v>0.50211710071429005</v>
-      </c>
-      <c r="D71" s="32">
-        <v>23.132491999999999</v>
-      </c>
-      <c r="E71" s="32">
-        <v>98.169126666666699</v>
-      </c>
-      <c r="F71" s="32">
-        <v>1.2597325399999999</v>
-      </c>
-      <c r="G71" s="30">
-        <v>38.5231693333333</v>
-      </c>
-      <c r="H71" s="32">
-        <v>66390.606666666703</v>
-      </c>
-      <c r="I71" s="32">
-        <v>50.31</v>
-      </c>
-      <c r="J71" s="30">
-        <v>23.136068230769201</v>
+      <c r="C71" s="40">
+        <v>0.19511071326672999</v>
+      </c>
+      <c r="D71" s="40">
+        <v>33.027489523145</v>
+      </c>
+      <c r="E71" s="40">
+        <v>95.6919061302427</v>
+      </c>
+      <c r="F71" s="40">
+        <v>0.39805067494414997</v>
+      </c>
+      <c r="G71" s="37">
+        <v>37.052253139088698</v>
+      </c>
+      <c r="H71" s="41">
+        <v>204419.235767673</v>
+      </c>
+      <c r="I71" s="40">
+        <v>59.0283227699774</v>
+      </c>
+      <c r="J71" s="37">
+        <v>27.3613187738077</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="32">
-        <v>0.55739062375000004</v>
-      </c>
-      <c r="D72" s="32">
-        <v>20.341473749999999</v>
-      </c>
-      <c r="E72" s="32">
-        <v>52.271700000000003</v>
-      </c>
-      <c r="F72" s="32">
-        <v>0.96495294200000004</v>
-      </c>
-      <c r="G72" s="30">
-        <v>19.445881249999999</v>
-      </c>
-      <c r="H72" s="32">
-        <v>857570.17224999995</v>
-      </c>
-      <c r="I72" s="32">
-        <v>54.811666666666703</v>
-      </c>
-      <c r="J72" s="30">
-        <v>22.909750200000001</v>
+      <c r="C72" s="40">
+        <v>0.25912860707294</v>
+      </c>
+      <c r="D72" s="40">
+        <v>20.593970034324599</v>
+      </c>
+      <c r="E72" s="40">
+        <v>58.6633140698247</v>
+      </c>
+      <c r="F72" s="40">
+        <v>0.59316834580335998</v>
+      </c>
+      <c r="G72" s="37">
+        <v>24.595887077313499</v>
+      </c>
+      <c r="H72" s="41">
+        <v>1276397.74395154</v>
+      </c>
+      <c r="I72" s="40">
+        <v>64.227679693885605</v>
+      </c>
+      <c r="J72" s="37">
+        <v>23.3015371707572</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B73" s="31" t="s">
+      <c r="B73" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C73" s="32">
-        <v>3.8399091156249998</v>
-      </c>
-      <c r="D73" s="32">
-        <v>30.269498124999998</v>
-      </c>
-      <c r="E73" s="32">
-        <v>98.200718749999993</v>
-      </c>
-      <c r="F73" s="32">
-        <v>4.9180334874999998</v>
-      </c>
-      <c r="G73" s="30">
-        <v>45.354194374999999</v>
-      </c>
-      <c r="H73" s="32">
-        <v>50083.375</v>
-      </c>
-      <c r="I73" s="32">
-        <v>60.428125000000001</v>
-      </c>
-      <c r="J73" s="30">
-        <v>32.648921428571398</v>
+      <c r="C73" s="40">
+        <v>0.91445404406801001</v>
+      </c>
+      <c r="D73" s="40">
+        <v>22.2222306324397</v>
+      </c>
+      <c r="E73" s="40">
+        <v>77.518828160713298</v>
+      </c>
+      <c r="F73" s="40">
+        <v>0.99830520074592999</v>
+      </c>
+      <c r="G73" s="37">
+        <v>33.068339403354898</v>
+      </c>
+      <c r="H73" s="41">
+        <v>78976.560007020307</v>
+      </c>
+      <c r="I73" s="40">
+        <v>50.836977317827703</v>
+      </c>
+      <c r="J73" s="37">
+        <v>25.961865549599199</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="27" t="s">
+      <c r="A74" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="C74" s="29">
-        <v>5.6798317999999997</v>
-      </c>
-      <c r="D74" s="29">
-        <v>48.643180000000001</v>
-      </c>
-      <c r="E74" s="29">
-        <v>111.83665999999999</v>
-      </c>
-      <c r="F74" s="29">
-        <v>10.829914</v>
-      </c>
-      <c r="G74" s="30">
-        <v>65.996740000000003</v>
-      </c>
-      <c r="H74" s="29">
-        <v>642925.6</v>
-      </c>
-      <c r="I74" s="29">
-        <v>88.317499999999995</v>
-      </c>
-      <c r="J74" s="30">
-        <v>50.502994000000001</v>
+      <c r="C74" s="36">
+        <v>6.6968247911529897</v>
+      </c>
+      <c r="D74" s="36">
+        <v>61.4436646652753</v>
+      </c>
+      <c r="E74" s="36">
+        <v>116.490893012933</v>
+      </c>
+      <c r="F74" s="36">
+        <v>9.5870647112510508</v>
+      </c>
+      <c r="G74" s="37">
+        <v>77.091625597754501</v>
+      </c>
+      <c r="H74" s="38">
+        <v>1061852.01296821</v>
+      </c>
+      <c r="I74" s="36">
+        <v>88.857723045139196</v>
+      </c>
+      <c r="J74" s="37">
+        <v>51.372818474362298</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A75" s="27" t="s">
+      <c r="A75" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B75" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="C75" s="34">
-        <v>8.7210654000000005</v>
-      </c>
-      <c r="D75" s="34">
-        <v>59.042070000000002</v>
-      </c>
-      <c r="E75" s="34">
-        <v>133.88640000000001</v>
-      </c>
-      <c r="F75" s="34">
-        <v>11.0090269</v>
-      </c>
-      <c r="G75" s="35">
-        <v>95.600579999999994</v>
-      </c>
-      <c r="H75" s="34">
-        <v>3193573.9</v>
-      </c>
-      <c r="I75" s="34">
-        <v>90.1</v>
-      </c>
-      <c r="J75" s="35">
-        <v>50.449195555555598</v>
+      <c r="C75" s="43">
+        <v>6.5687241953145996</v>
+      </c>
+      <c r="D75" s="43">
+        <v>52.3282704442788</v>
+      </c>
+      <c r="E75" s="43">
+        <v>139.20247893367701</v>
+      </c>
+      <c r="F75" s="43">
+        <v>4.6090071594424096</v>
+      </c>
+      <c r="G75" s="44">
+        <v>82.060617929495606</v>
+      </c>
+      <c r="H75" s="45">
+        <v>6354005.3846826097</v>
+      </c>
+      <c r="I75" s="43">
+        <v>91.451142459144094</v>
+      </c>
+      <c r="J75" s="44">
+        <v>43.668365357661401</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B76" s="31" t="s">
+      <c r="B76" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C76" s="32">
-        <v>12.985075833333299</v>
-      </c>
-      <c r="D76" s="32">
-        <v>62.824483333333298</v>
-      </c>
-      <c r="E76" s="32">
-        <v>111.28772499999999</v>
-      </c>
-      <c r="F76" s="32">
-        <v>15.088349166666699</v>
-      </c>
-      <c r="G76" s="30">
-        <v>71.148525000000006</v>
-      </c>
-      <c r="H76" s="32">
-        <v>1286326.2</v>
-      </c>
-      <c r="I76" s="32">
-        <v>84.550833333333401</v>
-      </c>
-      <c r="J76" s="30">
-        <v>61.658628</v>
+      <c r="C76" s="40">
+        <v>14.235541335425999</v>
+      </c>
+      <c r="D76" s="40">
+        <v>67.246800009100397</v>
+      </c>
+      <c r="E76" s="40">
+        <v>106.95136264958199</v>
+      </c>
+      <c r="F76" s="40">
+        <v>15.102691735451099</v>
+      </c>
+      <c r="G76" s="37">
+        <v>80.454038817486506</v>
+      </c>
+      <c r="H76" s="41">
+        <v>3057734.3779050601</v>
+      </c>
+      <c r="I76" s="40">
+        <v>90.629029298185898</v>
+      </c>
+      <c r="J76" s="37">
+        <v>62.279132291160899</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B77" s="31" t="s">
+      <c r="B77" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="C77" s="29">
-        <v>34.235322222222202</v>
-      </c>
-      <c r="D77" s="29">
-        <v>84.6012296296296</v>
-      </c>
-      <c r="E77" s="29">
-        <v>124.65933703703701</v>
-      </c>
-      <c r="F77" s="29">
-        <v>30.6512474074074</v>
-      </c>
-      <c r="G77" s="30">
-        <v>106.56028518518499</v>
-      </c>
-      <c r="H77" s="29">
-        <v>1078324.66666667</v>
-      </c>
-      <c r="I77" s="29">
+      <c r="C77" s="36">
+        <v>35.511740638315999</v>
+      </c>
+      <c r="D77" s="36">
+        <v>83.9332518451792</v>
+      </c>
+      <c r="E77" s="36">
+        <v>123.114249822722</v>
+      </c>
+      <c r="F77" s="36">
+        <v>37.368278733818897</v>
+      </c>
+      <c r="G77" s="37">
+        <v>103.252875176164</v>
+      </c>
+      <c r="H77" s="38">
+        <v>1763087.3851655901</v>
+      </c>
+      <c r="I77" s="36">
         <v>99</v>
       </c>
-      <c r="J77" s="30">
-        <v>82.309841481481499</v>
+      <c r="J77" s="37">
+        <v>84.538788854668496</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A78" s="27" t="s">
+      <c r="A78" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B78" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C78" s="34">
-        <v>1.2237583433333299</v>
-      </c>
-      <c r="D78" s="34">
-        <v>26.075081999999998</v>
-      </c>
-      <c r="E78" s="34">
-        <v>88.302466666666703</v>
-      </c>
-      <c r="F78" s="34">
-        <v>3.1287169800000001</v>
-      </c>
-      <c r="G78" s="35">
-        <v>43.016407733333303</v>
-      </c>
-      <c r="H78" s="34">
-        <v>104104.46666666699</v>
-      </c>
-      <c r="I78" s="34">
-        <v>56.496666666666698</v>
-      </c>
-      <c r="J78" s="35">
-        <v>32.362042923076899</v>
+      <c r="C78" s="43">
+        <v>0.93412805689837997</v>
+      </c>
+      <c r="D78" s="43">
+        <v>30.970477454862898</v>
+      </c>
+      <c r="E78" s="43">
+        <v>80.166972725918995</v>
+      </c>
+      <c r="F78" s="43">
+        <v>1.5403902195064401</v>
+      </c>
+      <c r="G78" s="44">
+        <v>38.324509454804598</v>
+      </c>
+      <c r="H78" s="45">
+        <v>230230.53679782501</v>
+      </c>
+      <c r="I78" s="43">
+        <v>58.872190692157297</v>
+      </c>
+      <c r="J78" s="44">
+        <v>30.3948587284249</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A79" s="27" t="s">
+      <c r="A79" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B79" s="31" t="s">
+      <c r="B79" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="32">
-        <v>11.954493482608701</v>
-      </c>
-      <c r="D79" s="32">
-        <v>65.670269565217396</v>
-      </c>
-      <c r="E79" s="32">
-        <v>122.669952173913</v>
-      </c>
-      <c r="F79" s="32">
-        <v>14.9964584782609</v>
-      </c>
-      <c r="G79" s="30">
-        <v>78.169604347826095</v>
-      </c>
-      <c r="H79" s="32">
-        <v>1363477.2347826101</v>
-      </c>
-      <c r="I79" s="32">
-        <v>83.143500000000003</v>
-      </c>
-      <c r="J79" s="30">
-        <v>64.465273124999996</v>
+      <c r="C79" s="40">
+        <v>15.020847593092</v>
+      </c>
+      <c r="D79" s="40">
+        <v>70.245873421890707</v>
+      </c>
+      <c r="E79" s="40">
+        <v>127.738944507946</v>
+      </c>
+      <c r="F79" s="40">
+        <v>18.945206447558501</v>
+      </c>
+      <c r="G79" s="37">
+        <v>79.012037376443203</v>
+      </c>
+      <c r="H79" s="41">
+        <v>3563696.8137191799</v>
+      </c>
+      <c r="I79" s="40">
+        <v>76.895944471336804</v>
+      </c>
+      <c r="J79" s="37">
+        <v>63.613984568777603</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A80" s="27" t="s">
+      <c r="A80" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="31" t="s">
+      <c r="B80" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="C80" s="32">
-        <v>2.4657405502631602</v>
-      </c>
-      <c r="D80" s="32">
-        <v>27.915269487179501</v>
-      </c>
-      <c r="E80" s="32">
-        <v>88.297051282051299</v>
-      </c>
-      <c r="F80" s="32">
-        <v>3.3231569752820498</v>
-      </c>
-      <c r="G80" s="30">
-        <v>36.302005897435897</v>
-      </c>
-      <c r="H80" s="32">
-        <v>306631.49943589797</v>
-      </c>
-      <c r="I80" s="32">
-        <v>58.297567567567597</v>
-      </c>
-      <c r="J80" s="30">
-        <v>27.861612000000001</v>
+      <c r="C80" s="40">
+        <v>1.8125563991076299</v>
+      </c>
+      <c r="D80" s="40">
+        <v>30.149362474809799</v>
+      </c>
+      <c r="E80" s="40">
+        <v>84.172093496787994</v>
+      </c>
+      <c r="F80" s="40">
+        <v>2.2852814916819302</v>
+      </c>
+      <c r="G80" s="37">
+        <v>36.236678604963799</v>
+      </c>
+      <c r="H80" s="41">
+        <v>746461.21933510096</v>
+      </c>
+      <c r="I80" s="40">
+        <v>63.689083619929399</v>
+      </c>
+      <c r="J80" s="37">
+        <v>27.451790524443702</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A81" s="27" t="s">
+      <c r="A81" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B81" s="31" t="s">
+      <c r="B81" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="C81" s="29">
-        <v>19.958184662608701</v>
-      </c>
-      <c r="D81" s="29">
-        <v>66.326880701754405</v>
-      </c>
-      <c r="E81" s="29">
-        <v>111.844481034483</v>
-      </c>
-      <c r="F81" s="29">
-        <v>20.834840026724098</v>
-      </c>
-      <c r="G81" s="30">
-        <v>79.474015652173904</v>
-      </c>
-      <c r="H81" s="29">
-        <v>2061767.02212389</v>
-      </c>
-      <c r="I81" s="29">
-        <v>88.438983050847497</v>
-      </c>
-      <c r="J81" s="30">
-        <v>68.084262643678201</v>
+      <c r="C81" s="36">
+        <v>17.6481155823178</v>
+      </c>
+      <c r="D81" s="36">
+        <v>54.061804289345702</v>
+      </c>
+      <c r="E81" s="36">
+        <v>109.782306398548</v>
+      </c>
+      <c r="F81" s="36">
+        <v>13.500857129618501</v>
+      </c>
+      <c r="G81" s="37">
+        <v>82.220861918480196</v>
+      </c>
+      <c r="H81" s="38">
+        <v>19031405.628918901</v>
+      </c>
+      <c r="I81" s="36">
+        <v>94.836751611997698</v>
+      </c>
+      <c r="J81" s="37">
+        <v>51.985124096963197</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B82" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="C82" s="34">
-        <v>0.13520119818182</v>
-      </c>
-      <c r="D82" s="34">
-        <v>11.6224856521739</v>
-      </c>
-      <c r="E82" s="34">
-        <v>63.714091304347797</v>
-      </c>
-      <c r="F82" s="34">
-        <v>0.41008694939130003</v>
-      </c>
-      <c r="G82" s="35">
-        <v>20.3256595652174</v>
-      </c>
-      <c r="H82" s="34">
-        <v>22793.451217391299</v>
-      </c>
-      <c r="I82" s="34">
-        <v>46.360476190476199</v>
-      </c>
-      <c r="J82" s="35">
-        <v>16.662839099999999</v>
+      <c r="C82" s="43">
+        <v>0.10174379281062999</v>
+      </c>
+      <c r="D82" s="43">
+        <v>14.4645861052686</v>
+      </c>
+      <c r="E82" s="43">
+        <v>54.617739947057203</v>
+      </c>
+      <c r="F82" s="43">
+        <v>0.42640643268463002</v>
+      </c>
+      <c r="G82" s="44">
+        <v>20.3808014249637</v>
+      </c>
+      <c r="H82" s="45">
+        <v>25431.630949253002</v>
+      </c>
+      <c r="I82" s="43">
+        <v>48.797020241842603</v>
+      </c>
+      <c r="J82" s="44">
+        <v>16.185633701496499</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A83" s="27" t="s">
+      <c r="A83" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B83" s="31" t="s">
+      <c r="B83" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="32">
-        <v>2.1629103999999999</v>
-      </c>
-      <c r="D83" s="32">
-        <v>25.781079999999999</v>
-      </c>
-      <c r="E83" s="32">
-        <v>68.691050000000004</v>
-      </c>
-      <c r="F83" s="32">
-        <v>5.2286627000000001</v>
-      </c>
-      <c r="G83" s="30">
-        <v>17.416183333333301</v>
-      </c>
-      <c r="H83" s="32">
-        <v>91829.8</v>
-      </c>
-      <c r="I83" s="32">
-        <v>58.647500000000001</v>
-      </c>
-      <c r="J83" s="30">
-        <v>24.1283125</v>
+      <c r="C83" s="40">
+        <v>1.9447044683413599</v>
+      </c>
+      <c r="D83" s="40">
+        <v>23.344695626433101</v>
+      </c>
+      <c r="E83" s="40">
+        <v>60.355312784569101</v>
+      </c>
+      <c r="F83" s="40">
+        <v>4.5387856087550897</v>
+      </c>
+      <c r="G83" s="37">
+        <v>15.6060578578935</v>
+      </c>
+      <c r="H83" s="41">
+        <v>97368.384838796104</v>
+      </c>
+      <c r="I83" s="40">
+        <v>58.846258466146502</v>
+      </c>
+      <c r="J83" s="37">
+        <v>20.849717264372199</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A84" s="27" t="s">
+      <c r="A84" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="31" t="s">
+      <c r="B84" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="C84" s="32">
-        <v>2.03835516086956</v>
-      </c>
-      <c r="D84" s="32">
-        <v>35.894285652173899</v>
-      </c>
-      <c r="E84" s="32">
-        <v>96.768856521739195</v>
-      </c>
-      <c r="F84" s="32">
-        <v>3.09795203913044</v>
-      </c>
-      <c r="G84" s="30">
-        <v>45.440619565217403</v>
-      </c>
-      <c r="H84" s="32">
-        <v>542016.52608695696</v>
-      </c>
-      <c r="I84" s="32">
-        <v>63.190476190476197</v>
-      </c>
-      <c r="J84" s="30">
-        <v>34.200639473684198</v>
+      <c r="C84" s="40">
+        <v>2.4318981398180002</v>
+      </c>
+      <c r="D84" s="40">
+        <v>40.468424795359603</v>
+      </c>
+      <c r="E84" s="40">
+        <v>96.811977240453302</v>
+      </c>
+      <c r="F84" s="40">
+        <v>2.8342979293409001</v>
+      </c>
+      <c r="G84" s="37">
+        <v>45.342612286117898</v>
+      </c>
+      <c r="H84" s="41">
+        <v>1007573.83791514</v>
+      </c>
+      <c r="I84" s="40">
+        <v>69.013688704066197</v>
+      </c>
+      <c r="J84" s="37">
+        <v>35.062968131970301</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="32">
-        <v>4.8308951769230797</v>
-      </c>
-      <c r="D85" s="32">
-        <v>35.707796153846203</v>
-      </c>
-      <c r="E85" s="32">
-        <v>99.971538461538501</v>
-      </c>
-      <c r="F85" s="32">
-        <v>5.9196916115384601</v>
-      </c>
-      <c r="G85" s="30">
-        <v>55.5277538461539</v>
-      </c>
-      <c r="H85" s="32">
-        <v>1942558.4615384601</v>
-      </c>
-      <c r="I85" s="32">
-        <v>83.624210526315807</v>
-      </c>
-      <c r="J85" s="30">
-        <v>43.188903684210501</v>
+      <c r="C85" s="40">
+        <v>2.97568825072503</v>
+      </c>
+      <c r="D85" s="40">
+        <v>33.762833220963898</v>
+      </c>
+      <c r="E85" s="40">
+        <v>94.184714570986401</v>
+      </c>
+      <c r="F85" s="40">
+        <v>2.2723799415965198</v>
+      </c>
+      <c r="G85" s="37">
+        <v>51.988444064148297</v>
+      </c>
+      <c r="H85" s="41">
+        <v>21020408.7507107</v>
+      </c>
+      <c r="I85" s="40">
+        <v>92.790143453818999</v>
+      </c>
+      <c r="J85" s="37">
+        <v>25.539602869658601</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A86" s="27" t="s">
+      <c r="A86" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B86" s="31" t="s">
+      <c r="B86" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="32">
-        <v>2.1593868333333299</v>
-      </c>
-      <c r="D86" s="32">
-        <v>44.027716666666699</v>
-      </c>
-      <c r="E86" s="32">
-        <v>121.250533333333</v>
-      </c>
-      <c r="F86" s="32">
-        <v>6.83144666666667</v>
-      </c>
-      <c r="G86" s="30">
-        <v>65.189654333333394</v>
-      </c>
-      <c r="H86" s="32">
-        <v>69871.5</v>
-      </c>
-      <c r="I86" s="32">
-        <v>73.751999999999995</v>
-      </c>
-      <c r="J86" s="30">
-        <v>53.016528000000001</v>
+      <c r="C86" s="40">
+        <v>2.3318435478785999</v>
+      </c>
+      <c r="D86" s="40">
+        <v>52.161014512545698</v>
+      </c>
+      <c r="E86" s="40">
+        <v>154.23883365563</v>
+      </c>
+      <c r="F86" s="40">
+        <v>5.3788819919051898</v>
+      </c>
+      <c r="G86" s="37">
+        <v>79.020091221096195</v>
+      </c>
+      <c r="H86" s="41">
+        <v>282893.297469132</v>
+      </c>
+      <c r="I86" s="40">
+        <v>90.939357356245594</v>
+      </c>
+      <c r="J86" s="37">
+        <v>50.683022613108101</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="27" t="s">
+      <c r="A87" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B87" s="31" t="s">
+      <c r="B87" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C87" s="32">
-        <v>13.20807249375</v>
-      </c>
-      <c r="D87" s="32">
-        <v>62.385874999999999</v>
-      </c>
-      <c r="E87" s="32">
-        <v>109.142345833333</v>
-      </c>
-      <c r="F87" s="32">
-        <v>14.5973739583333</v>
-      </c>
-      <c r="G87" s="30">
-        <v>65.619208333333404</v>
-      </c>
-      <c r="H87" s="32">
-        <v>1917104.6229166701</v>
-      </c>
-      <c r="I87" s="32">
-        <v>86.159411764705894</v>
-      </c>
-      <c r="J87" s="30">
-        <v>63.587303235294101</v>
+      <c r="C87" s="40">
+        <v>22.171851845188598</v>
+      </c>
+      <c r="D87" s="40">
+        <v>60.063889266001901</v>
+      </c>
+      <c r="E87" s="40">
+        <v>120.958609671354</v>
+      </c>
+      <c r="F87" s="40">
+        <v>13.8468362860228</v>
+      </c>
+      <c r="G87" s="37">
+        <v>89.735085859037795</v>
+      </c>
+      <c r="H87" s="41">
+        <v>18591409.379851799</v>
+      </c>
+      <c r="I87" s="40">
+        <v>94.410230263956194</v>
+      </c>
+      <c r="J87" s="37">
+        <v>61.3634652930755</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="27" t="s">
+      <c r="A88" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="31" t="s">
+      <c r="B88" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="C88" s="29">
-        <v>30.311161967213099</v>
-      </c>
-      <c r="D88" s="29">
-        <v>85.710336666666706</v>
-      </c>
-      <c r="E88" s="29">
-        <v>129.42034098360699</v>
-      </c>
-      <c r="F88" s="29">
-        <v>31.6502029508197</v>
-      </c>
-      <c r="G88" s="30">
-        <v>106.61223333333299</v>
-      </c>
-      <c r="H88" s="29">
-        <v>2058699.9322033899</v>
-      </c>
-      <c r="I88" s="29">
-        <v>95.564166666666694</v>
-      </c>
-      <c r="J88" s="30">
-        <v>83.826192765957501</v>
+      <c r="C88" s="36">
+        <v>34.414630588628199</v>
+      </c>
+      <c r="D88" s="36">
+        <v>86.966267474926795</v>
+      </c>
+      <c r="E88" s="36">
+        <v>125.278890670113</v>
+      </c>
+      <c r="F88" s="36">
+        <v>36.743356688115497</v>
+      </c>
+      <c r="G88" s="37">
+        <v>126.351451267832</v>
+      </c>
+      <c r="H88" s="38">
+        <v>11537109.6804788</v>
+      </c>
+      <c r="I88" s="36">
+        <v>98.798157254433306</v>
+      </c>
+      <c r="J88" s="37">
+        <v>85.562263559901893</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B89" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="34">
-        <v>0.33877785500000002</v>
-      </c>
-      <c r="D89" s="34">
-        <v>16.086304242424202</v>
-      </c>
-      <c r="E89" s="34">
-        <v>69.450469696969705</v>
-      </c>
-      <c r="F89" s="34">
-        <v>0.6389409950303</v>
-      </c>
-      <c r="G89" s="35">
-        <v>24.515163030303</v>
-      </c>
-      <c r="H89" s="34">
-        <v>23304.772060606101</v>
-      </c>
-      <c r="I89" s="34">
-        <v>47.3427586206897</v>
-      </c>
-      <c r="J89" s="35">
-        <v>19.1664019259259</v>
+      <c r="C89" s="43">
+        <v>0.29687584599692002</v>
+      </c>
+      <c r="D89" s="43">
+        <v>16.342256952060598</v>
+      </c>
+      <c r="E89" s="43">
+        <v>60.087590915382798</v>
+      </c>
+      <c r="F89" s="43">
+        <v>0.43339148685047002</v>
+      </c>
+      <c r="G89" s="44">
+        <v>21.499043100012202</v>
+      </c>
+      <c r="H89" s="45">
+        <v>26696.6895277189</v>
+      </c>
+      <c r="I89" s="43">
+        <v>47.9498162958375</v>
+      </c>
+      <c r="J89" s="44">
+        <v>17.5655914651656</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A90" s="27" t="s">
+      <c r="A90" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B90" s="31" t="s">
+      <c r="B90" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="C90" s="32">
-        <v>1.3685872214285699</v>
-      </c>
-      <c r="D90" s="32">
-        <v>28.065985714285699</v>
-      </c>
-      <c r="E90" s="32">
-        <v>85.721235714285697</v>
-      </c>
-      <c r="F90" s="32">
-        <v>3.81781629285714</v>
-      </c>
-      <c r="G90" s="30">
-        <v>44.623750000000001</v>
-      </c>
-      <c r="H90" s="32">
-        <v>203551.39285714299</v>
-      </c>
-      <c r="I90" s="32">
-        <v>68.438888888888897</v>
-      </c>
-      <c r="J90" s="30">
-        <v>27.609719999999999</v>
+      <c r="C90" s="40">
+        <v>2.8014089558812199</v>
+      </c>
+      <c r="D90" s="40">
+        <v>20.870503486704099</v>
+      </c>
+      <c r="E90" s="40">
+        <v>97.124008988752607</v>
+      </c>
+      <c r="F90" s="40">
+        <v>1.6408499346466601</v>
+      </c>
+      <c r="G90" s="37">
+        <v>52.161856944978602</v>
+      </c>
+      <c r="H90" s="41">
+        <v>814180.00720709795</v>
+      </c>
+      <c r="I90" s="40">
+        <v>73.573329385540404</v>
+      </c>
+      <c r="J90" s="37">
+        <v>24.1968612493074</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A91" s="27" t="s">
+      <c r="A91" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B91" s="31" t="s">
+      <c r="B91" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="32">
-        <v>8.9038932666666692</v>
-      </c>
-      <c r="D91" s="32">
-        <v>37.2134966666667</v>
-      </c>
-      <c r="E91" s="32">
-        <v>114.216983333333</v>
-      </c>
-      <c r="F91" s="32">
-        <v>11.453803333333299</v>
-      </c>
-      <c r="G91" s="30">
-        <v>53.194466666666699</v>
-      </c>
-      <c r="H91" s="32">
-        <v>21501.666666666701</v>
-      </c>
-      <c r="I91" s="32">
-        <v>67.495999999999995</v>
-      </c>
-      <c r="J91" s="30">
-        <v>48.398094999999998</v>
+      <c r="C91" s="40">
+        <v>6.5948341964480699</v>
+      </c>
+      <c r="D91" s="40">
+        <v>28.586570704748599</v>
+      </c>
+      <c r="E91" s="40">
+        <v>102.81932282028301</v>
+      </c>
+      <c r="F91" s="40">
+        <v>10.758342779163099</v>
+      </c>
+      <c r="G91" s="37">
+        <v>45.686034023897498</v>
+      </c>
+      <c r="H91" s="41">
+        <v>28884.938691363299</v>
+      </c>
+      <c r="I91" s="40">
+        <v>63.559024125845397</v>
+      </c>
+      <c r="J91" s="37">
+        <v>51.655869017054499</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A92" s="27" t="s">
+      <c r="A92" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B92" s="31" t="s">
+      <c r="B92" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C92" s="32">
-        <v>9.9274711124999993</v>
-      </c>
-      <c r="D92" s="32">
-        <v>51.876506451612897</v>
-      </c>
-      <c r="E92" s="32">
-        <v>96.301781250000005</v>
-      </c>
-      <c r="F92" s="32">
-        <v>13.776168471875</v>
-      </c>
-      <c r="G92" s="30">
-        <v>51.906251612903198</v>
-      </c>
-      <c r="H92" s="32">
-        <v>220179.98333333299</v>
-      </c>
-      <c r="I92" s="32">
-        <v>85.323157894736894</v>
-      </c>
-      <c r="J92" s="30">
-        <v>69.614194999999995</v>
+      <c r="C92" s="40">
+        <v>6.5992212126854399</v>
+      </c>
+      <c r="D92" s="40">
+        <v>52.821926581381497</v>
+      </c>
+      <c r="E92" s="40">
+        <v>80.593534622403197</v>
+      </c>
+      <c r="F92" s="40">
+        <v>10.6992368970523</v>
+      </c>
+      <c r="G92" s="37">
+        <v>52.028229147268</v>
+      </c>
+      <c r="H92" s="41">
+        <v>562538.35186030495</v>
+      </c>
+      <c r="I92" s="40">
+        <v>70.784788811465603</v>
+      </c>
+      <c r="J92" s="37">
+        <v>58.782711572777103</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A93" s="27" t="s">
+      <c r="A93" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="31" t="s">
+      <c r="B93" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C93" s="32">
-        <v>0.36438346249999998</v>
-      </c>
-      <c r="D93" s="32">
-        <v>18.622363750000002</v>
-      </c>
-      <c r="E93" s="32">
-        <v>75.797631249999995</v>
-      </c>
-      <c r="F93" s="32">
-        <v>1.0329135062499999</v>
-      </c>
-      <c r="G93" s="30">
-        <v>29.946993750000001</v>
-      </c>
-      <c r="H93" s="32">
-        <v>26607.625</v>
-      </c>
-      <c r="I93" s="32">
-        <v>49.931333333333299</v>
-      </c>
-      <c r="J93" s="30">
-        <v>20.423289499999999</v>
+      <c r="C93" s="40">
+        <v>0.18111672766111001</v>
+      </c>
+      <c r="D93" s="40">
+        <v>16.521748326943602</v>
+      </c>
+      <c r="E93" s="40">
+        <v>58.508618337819698</v>
+      </c>
+      <c r="F93" s="40">
+        <v>0.72385852639127002</v>
+      </c>
+      <c r="G93" s="37">
+        <v>23.4382103329038</v>
+      </c>
+      <c r="H93" s="41">
+        <v>34393.533182307401</v>
+      </c>
+      <c r="I93" s="40">
+        <v>56.104199417869097</v>
+      </c>
+      <c r="J93" s="37">
+        <v>16.708437663730098</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="31" t="s">
+      <c r="B94" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="29">
-        <v>7.8603222937500004</v>
-      </c>
-      <c r="D94" s="29">
-        <v>49.9861</v>
-      </c>
-      <c r="E94" s="29">
-        <v>110.3710875</v>
-      </c>
-      <c r="F94" s="29">
-        <v>11.066534125</v>
-      </c>
-      <c r="G94" s="30">
-        <v>64.472087500000001</v>
-      </c>
-      <c r="H94" s="29">
-        <v>277845.5</v>
-      </c>
-      <c r="I94" s="29">
-        <v>79.601428571428599</v>
-      </c>
-      <c r="J94" s="30">
-        <v>52.987362666666698</v>
+      <c r="C94" s="36">
+        <v>6.8026387497523402</v>
+      </c>
+      <c r="D94" s="36">
+        <v>43.149758611933102</v>
+      </c>
+      <c r="E94" s="36">
+        <v>105.425340457285</v>
+      </c>
+      <c r="F94" s="36">
+        <v>8.3439245610744894</v>
+      </c>
+      <c r="G94" s="37">
+        <v>53.903194491505097</v>
+      </c>
+      <c r="H94" s="38">
+        <v>390736.07593530102</v>
+      </c>
+      <c r="I94" s="36">
+        <v>72.492752201638893</v>
+      </c>
+      <c r="J94" s="37">
+        <v>40.664993418707297</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A95" s="27" t="s">
+      <c r="A95" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B95" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="34">
-        <v>0.63032305035713998</v>
-      </c>
-      <c r="D95" s="34">
-        <v>20.092126206896602</v>
-      </c>
-      <c r="E95" s="34">
-        <v>79.046231034482801</v>
-      </c>
-      <c r="F95" s="34">
-        <v>1.7795704862068999</v>
-      </c>
-      <c r="G95" s="35">
-        <v>27.585523310344801</v>
-      </c>
-      <c r="H95" s="34">
-        <v>271047.413793104</v>
-      </c>
-      <c r="I95" s="34">
-        <v>50.587692307692301</v>
-      </c>
-      <c r="J95" s="35">
-        <v>27.080874333333298</v>
+      <c r="C95" s="43">
+        <v>0.42124789995895001</v>
+      </c>
+      <c r="D95" s="43">
+        <v>24.991167852812701</v>
+      </c>
+      <c r="E95" s="43">
+        <v>75.600678968502805</v>
+      </c>
+      <c r="F95" s="43">
+        <v>0.76892838444395994</v>
+      </c>
+      <c r="G95" s="44">
+        <v>26.5946742046929</v>
+      </c>
+      <c r="H95" s="45">
+        <v>574274.50403760304</v>
+      </c>
+      <c r="I95" s="43">
+        <v>57.827638294848498</v>
+      </c>
+      <c r="J95" s="44">
+        <v>25.503854137689501</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A96" s="27" t="s">
+      <c r="A96" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B96" s="31" t="s">
+      <c r="B96" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="32">
-        <v>2.9581346538461499</v>
-      </c>
-      <c r="D96" s="32">
-        <v>33.6785</v>
-      </c>
-      <c r="E96" s="32">
-        <v>86.314371428571405</v>
-      </c>
-      <c r="F96" s="32">
-        <v>7.9246343571428604</v>
-      </c>
-      <c r="G96" s="30">
-        <v>41.995449999999998</v>
-      </c>
-      <c r="H96" s="32">
-        <v>462009.15384615399</v>
-      </c>
-      <c r="I96" s="32">
-        <v>83.636363636363697</v>
-      </c>
-      <c r="J96" s="30">
-        <v>36.533204545454602</v>
+      <c r="C96" s="40">
+        <v>3.6371975651238602</v>
+      </c>
+      <c r="D96" s="40">
+        <v>29.133902847521899</v>
+      </c>
+      <c r="E96" s="40">
+        <v>93.587367479415704</v>
+      </c>
+      <c r="F96" s="40">
+        <v>6.9489274199486397</v>
+      </c>
+      <c r="G96" s="37">
+        <v>50.5192894037393</v>
+      </c>
+      <c r="H96" s="41">
+        <v>1026199.105206</v>
+      </c>
+      <c r="I96" s="40">
+        <v>80.4842497429172</v>
+      </c>
+      <c r="J96" s="37">
+        <v>29.375482002727601</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A97" s="27" t="s">
+      <c r="A97" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B97" s="36" t="s">
+      <c r="B97" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="C97" s="37">
-        <v>1.78807218846154</v>
-      </c>
-      <c r="D97" s="37">
-        <v>17.532852307692298</v>
-      </c>
-      <c r="E97" s="37">
-        <v>62.764292307692301</v>
-      </c>
-      <c r="F97" s="37">
-        <v>2.2538834181538498</v>
-      </c>
-      <c r="G97" s="38">
-        <v>15.2030438461538</v>
-      </c>
-      <c r="H97" s="37">
-        <v>121441.644461538</v>
-      </c>
-      <c r="I97" s="37">
-        <v>41.541818181818201</v>
-      </c>
-      <c r="J97" s="38">
-        <v>20.6263907272727</v>
+      <c r="C97" s="47">
+        <v>2.0615492216607301</v>
+      </c>
+      <c r="D97" s="47">
+        <v>20.008492667750801</v>
+      </c>
+      <c r="E97" s="47">
+        <v>62.143737207245501</v>
+      </c>
+      <c r="F97" s="47">
+        <v>2.1861130048198798</v>
+      </c>
+      <c r="G97" s="48">
+        <v>20.274349869473301</v>
+      </c>
+      <c r="H97" s="49">
+        <v>163832.04359329</v>
+      </c>
+      <c r="I97" s="47">
+        <v>38.791772943334699</v>
+      </c>
+      <c r="J97" s="48">
+        <v>23.472400875350701</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A98" s="39"/>
-      <c r="B98" s="40"/>
-      <c r="C98" s="41"/>
-      <c r="D98" s="41"/>
-      <c r="E98" s="41"/>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
+      <c r="A98" s="50"/>
+      <c r="B98" s="51"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="A99" s="54" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="A100" s="54" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="A101" s="54" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="A102" s="54" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B105" s="44" t="s">
+      <c r="B105" s="58" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B106" s="58"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B107" s="59" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B108" s="59" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B109" s="59" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B110" s="59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B111" s="59" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B105" r:id="rId1" display="If you would like to explore these data further, look up the historic time series for these indicators, or produce interactive visualisations of these data, please visit the website http://oe.cd/afdd2020."/>
+    <hyperlink ref="B107" r:id="rId2"/>
+    <hyperlink ref="B108" r:id="rId3" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators"/>
+    <hyperlink ref="B109" r:id="rId4"/>
+    <hyperlink ref="B110" r:id="rId5"/>
+    <hyperlink ref="B111" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="50" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>